--- a/natmiOut/OldD7/LR-pairs_lrc2p/Matn1-Itgb1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Matn1-Itgb1.xlsx
@@ -531,16 +531,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.240612788559988</v>
+        <v>0.3430696666666667</v>
       </c>
       <c r="H2">
-        <v>0.240612788559988</v>
+        <v>1.029209</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -549,34 +549,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N2">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O2">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P2">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q2">
-        <v>34.08755585317072</v>
+        <v>52.67114880020755</v>
       </c>
       <c r="R2">
-        <v>34.08755585317072</v>
+        <v>474.040339201868</v>
       </c>
       <c r="S2">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="T2">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.240612788559988</v>
+        <v>0.3430696666666667</v>
       </c>
       <c r="H3">
-        <v>0.240612788559988</v>
+        <v>1.029209</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -611,34 +611,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N3">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q3">
-        <v>40.57167407180438</v>
+        <v>57.91005772728578</v>
       </c>
       <c r="R3">
-        <v>40.57167407180438</v>
+        <v>521.1905195455721</v>
       </c>
       <c r="S3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="T3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.240612788559988</v>
+        <v>0.3430696666666667</v>
       </c>
       <c r="H4">
-        <v>0.240612788559988</v>
+        <v>1.029209</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -673,34 +673,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N4">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q4">
-        <v>14.82020639509737</v>
+        <v>23.35972452919222</v>
       </c>
       <c r="R4">
-        <v>14.82020639509737</v>
+        <v>210.23752076273</v>
       </c>
       <c r="S4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="T4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,16 +717,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.240612788559988</v>
+        <v>0.3430696666666667</v>
       </c>
       <c r="H5">
-        <v>0.240612788559988</v>
+        <v>1.029209</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -735,34 +735,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N5">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q5">
-        <v>19.29280748515565</v>
+        <v>32.09851503855234</v>
       </c>
       <c r="R5">
-        <v>19.29280748515565</v>
+        <v>288.886635346971</v>
       </c>
       <c r="S5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="T5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
     </row>
   </sheetData>
